--- a/smalltalks-fr.xlsx
+++ b/smalltalks-fr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t>label</t>
   </si>
@@ -89,9 +89,6 @@
     <t>goodbye</t>
   </si>
   <si>
-    <t>love you</t>
-  </si>
-  <si>
     <t>a+</t>
   </si>
   <si>
@@ -956,9 +953,6 @@
     <t>realornot</t>
   </si>
   <si>
-    <t>qui est tu ?</t>
-  </si>
-  <si>
     <t>est-ce que tu es réel</t>
   </si>
   <si>
@@ -1016,9 +1010,6 @@
     <t>Top</t>
   </si>
   <si>
-    <t>Trop fort</t>
-  </si>
-  <si>
     <t>Trop bien</t>
   </si>
   <si>
@@ -1031,13 +1022,7 @@
     <t>Colossal</t>
   </si>
   <si>
-    <t>C'est super</t>
-  </si>
-  <si>
     <t>C'est marrant</t>
-  </si>
-  <si>
-    <t>C'est génial</t>
   </si>
   <si>
     <t>Bravo</t>
@@ -1400,7 +1385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1625,36 +1610,36 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="B42" t="s">
+      <c r="A42" t="s"/>
+      <c r="B42" t="s"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s"/>
-      <c r="B43" t="s"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
       <c r="B47" t="s">
         <v>42</v>
       </c>
@@ -1730,36 +1715,36 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="B62" t="s">
+      <c r="A62" t="s"/>
+      <c r="B62" t="s"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s"/>
-      <c r="B63" t="s"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
       <c r="B67" t="s">
         <v>59</v>
       </c>
@@ -1786,12 +1771,12 @@
     </row>
     <row r="72" spans="1:2">
       <c r="B72" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="B73" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1920,36 +1905,36 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="B99" t="s">
+      <c r="A99" t="s"/>
+      <c r="B99" t="s"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s"/>
-      <c r="B100" t="s"/>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>4</v>
-      </c>
       <c r="B104" t="s">
         <v>92</v>
       </c>
@@ -3045,36 +3030,36 @@
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="B323" t="s">
+      <c r="A323" t="s"/>
+      <c r="B323" t="s"/>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>0</v>
+      </c>
+      <c r="B324" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" t="s"/>
-      <c r="B324" t="s"/>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>0</v>
-      </c>
-      <c r="B325" t="s">
-        <v>312</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B327" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" t="s">
-        <v>4</v>
-      </c>
       <c r="B328" t="s">
         <v>313</v>
       </c>
@@ -3110,91 +3095,91 @@
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="B335" t="s">
+      <c r="A335" t="s"/>
+      <c r="B335" t="s"/>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>0</v>
+      </c>
+      <c r="B336" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
-      <c r="B336" t="s">
-        <v>321</v>
-      </c>
-    </row>
     <row r="337" spans="1:2">
-      <c r="A337" t="s"/>
-      <c r="B337" t="s"/>
+      <c r="A337" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>0</v>
-      </c>
-      <c r="B338" t="s">
-        <v>322</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B339" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" t="s">
-        <v>3</v>
+      <c r="B340" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" t="s">
-        <v>4</v>
-      </c>
       <c r="B341" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="B342" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="B343" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="B344" t="s">
+      <c r="A344" t="s"/>
+      <c r="B344" t="s"/>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B345" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
-      <c r="B345" t="s">
-        <v>326</v>
-      </c>
-    </row>
     <row r="346" spans="1:2">
-      <c r="A346" t="s"/>
-      <c r="B346" t="s"/>
+      <c r="A346" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>0</v>
-      </c>
-      <c r="B347" t="s">
-        <v>327</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B348" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" t="s">
-        <v>3</v>
+      <c r="B349" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" t="s">
-        <v>4</v>
-      </c>
       <c r="B350" t="s">
         <v>328</v>
       </c>
@@ -3280,33 +3265,8 @@
       </c>
     </row>
     <row r="367" spans="1:2">
-      <c r="B367" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="B368" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="B369" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="B370" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="B371" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" t="s"/>
-      <c r="B372" t="s"/>
+      <c r="A367" t="s"/>
+      <c r="B367" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
